--- a/src/test/java/com/jkyog/automation/testdata/JKYog_TestData1.xlsx
+++ b/src/test/java/com/jkyog/automation/testdata/JKYog_TestData1.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144"/>
+    <workbookView windowWidth="23040" windowHeight="9144" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FreeMembership" sheetId="1" r:id="rId1"/>
+    <sheet name="ThreeYrMembership" sheetId="2" r:id="rId2"/>
+    <sheet name="ThreeYrMembership_Carddetails" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>FirstName</t>
   </si>
@@ -46,13 +48,13 @@
     <t>test</t>
   </si>
   <si>
-    <t>user32</t>
-  </si>
-  <si>
-    <t>testuser32</t>
-  </si>
-  <si>
-    <t>testuser32@gmail.com</t>
+    <t>user104</t>
+  </si>
+  <si>
+    <t>testuser104</t>
+  </si>
+  <si>
+    <t>testuser104@gmail.com</t>
   </si>
   <si>
     <t>Radhey@13</t>
@@ -65,6 +67,60 @@
   </si>
   <si>
     <t>Telangana</t>
+  </si>
+  <si>
+    <t>user105</t>
+  </si>
+  <si>
+    <t>testuser105</t>
+  </si>
+  <si>
+    <t>testuser105@gmail.com</t>
+  </si>
+  <si>
+    <t>+1302 562 1254'</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Newyork</t>
+  </si>
+  <si>
+    <t>test38</t>
+  </si>
+  <si>
+    <t>3yrmbr38</t>
+  </si>
+  <si>
+    <t>3yrmbr38@gmail.com</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>CardExpiry</t>
+  </si>
+  <si>
+    <t>CardCVC</t>
+  </si>
+  <si>
+    <t>CardHolderName</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>4242424242424242</t>
+  </si>
+  <si>
+    <t>05/24</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>radheykrishna'</t>
   </si>
 </sst>
 </file>
@@ -94,21 +150,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -568,26 +625,26 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,14 +768,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,85 +1111,268 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="21.7777777777778" customWidth="1"/>
     <col min="5" max="5" width="10.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="15.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="11.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="14.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="11.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:9">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:9">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="9" customFormat="1" spans="1:9">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" spans="1:9">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="testuser32@gmail.com"/>
-    <hyperlink ref="E2" r:id="rId2" display="Radhey@13"/>
-    <hyperlink ref="F2" r:id="rId2" display="Radhey@13"/>
+    <hyperlink ref="E2" r:id="rId1" display="Radhey@13"/>
+    <hyperlink ref="F2" r:id="rId1" display="Radhey@13"/>
+    <hyperlink ref="D3" r:id="rId2" display="testuser105@gmail.com" tooltip="mailto:testuser105@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="Radhey@13"/>
+    <hyperlink ref="F3" r:id="rId1" display="Radhey@13"/>
+    <hyperlink ref="D2" r:id="rId3" display="testuser104@gmail.com" tooltip="mailto:testuser104@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="9.88888888888889" customWidth="1"/>
+    <col min="3" max="3" width="11.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="22.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="11.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="Radhey@13"/>
+    <hyperlink ref="F2" r:id="rId1" display="Radhey@13"/>
+    <hyperlink ref="D2" r:id="rId2" display="3yrmbr38@gmail.com" tooltip="mailto:3yrmbr38@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="18.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.88888888888889" customWidth="1"/>
+    <col min="3" max="3" width="11.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="22.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4">
+        <v>74562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/test/java/com/jkyog/automation/testdata/JKYog_TestData1.xlsx
+++ b/src/test/java/com/jkyog/automation/testdata/JKYog_TestData1.xlsx
@@ -4,19 +4,58 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6920" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="FreeMembership" sheetId="1" r:id="rId1"/>
-    <sheet name="ThreeYrMembership" sheetId="2" r:id="rId2"/>
-    <sheet name="ThreeYrMembership_Carddetails" sheetId="3" r:id="rId3"/>
+    <sheet name="Userlist" sheetId="1" r:id="rId1"/>
+    <sheet name="FreeMembership" sheetId="4" r:id="rId2"/>
+    <sheet name="ThreeYrMembershipIND" sheetId="2" r:id="rId3"/>
+    <sheet name="OneYrMembershipIND" sheetId="6" r:id="rId4"/>
+    <sheet name="OneYrMembershipUSD" sheetId="7" r:id="rId5"/>
+    <sheet name="ThreeYrMembershipUS" sheetId="5" r:id="rId6"/>
+    <sheet name="ThreeYrMembership_Carddetails" sheetId="3" r:id="rId7"/>
+    <sheet name="LostYourPassword" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="50">
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>testmember33</t>
+  </si>
+  <si>
+    <t>radhey</t>
+  </si>
+  <si>
+    <t>test3yr</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>Radhey@13</t>
+  </si>
   <si>
     <t>FirstName</t>
   </si>
@@ -24,15 +63,9 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>UserName</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>Reenter Password</t>
   </si>
   <si>
@@ -48,16 +81,13 @@
     <t>test</t>
   </si>
   <si>
-    <t>user104</t>
-  </si>
-  <si>
-    <t>testuser104</t>
-  </si>
-  <si>
-    <t>testuser104@gmail.com</t>
-  </si>
-  <si>
-    <t>Radhey@13</t>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test1user1@gmail.com</t>
   </si>
   <si>
     <t>7093001191'</t>
@@ -87,13 +117,43 @@
     <t>Newyork</t>
   </si>
   <si>
-    <t>test38</t>
-  </si>
-  <si>
-    <t>3yrmbr38</t>
-  </si>
-  <si>
-    <t>3yrmbr38@gmail.com</t>
+    <t>test41</t>
+  </si>
+  <si>
+    <t>3yrmbrind41</t>
+  </si>
+  <si>
+    <t>3yrmbrind41.test@courses.jkyog.org</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>1yrmbrind5</t>
+  </si>
+  <si>
+    <t>1yrmbrind5@gmail.com</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>1yrmbrusd4</t>
+  </si>
+  <si>
+    <t>1yrmbrusd4@gmail.com</t>
+  </si>
+  <si>
+    <t>(201) 555-1254</t>
+  </si>
+  <si>
+    <t>3yrmbrus41</t>
+  </si>
+  <si>
+    <t>3yrmbrus41@gmail.com</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
   </si>
   <si>
     <t>CardNumber</t>
@@ -121,19 +181,22 @@
   </si>
   <si>
     <t>radheykrishna'</t>
+  </si>
+  <si>
+    <t>radheykrishnaramya@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +208,12 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Google Sans"/>
       <charset val="134"/>
     </font>
     <font>
@@ -640,136 +709,138 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -782,10 +853,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1"/>
@@ -1111,117 +1182,54 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I3"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="3" max="3" width="11.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="21.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="10.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="15.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="14.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="11.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="13.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="11.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="11" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" s="11" customFormat="1" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+    </row>
+    <row r="3" s="11" customFormat="1" spans="1:2">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" s="11" customFormat="1" spans="1:2">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" s="9" customFormat="1" spans="1:9">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" spans="1:9">
-      <c r="A3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Radhey@13"/>
-    <hyperlink ref="F2" r:id="rId1" display="Radhey@13"/>
-    <hyperlink ref="D3" r:id="rId2" display="testuser105@gmail.com" tooltip="mailto:testuser105@gmail.com"/>
-    <hyperlink ref="E3" r:id="rId1" display="Radhey@13"/>
-    <hyperlink ref="F3" r:id="rId1" display="Radhey@13"/>
-    <hyperlink ref="D2" r:id="rId3" display="testuser104@gmail.com" tooltip="mailto:testuser104@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="radhey"/>
+    <hyperlink ref="B4" r:id="rId1" display="Radhey@13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1231,90 +1239,118 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="9.88888888888889" customWidth="1"/>
-    <col min="3" max="3" width="11.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="22.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="11.1111111111111" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="3" max="3" width="11.4454545454545" customWidth="1"/>
+    <col min="4" max="4" width="21.7818181818182" customWidth="1"/>
+    <col min="5" max="5" width="10.7818181818182" customWidth="1"/>
+    <col min="6" max="6" width="15.7818181818182" customWidth="1"/>
+    <col min="7" max="7" width="14.5545454545455" customWidth="1"/>
+    <col min="8" max="8" width="11.1090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="11" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" s="11" customFormat="1" spans="1:9">
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" s="11" customFormat="1" spans="1:9">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="F3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>16</v>
+      <c r="I3" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Radhey@13"/>
-    <hyperlink ref="F2" r:id="rId1" display="Radhey@13"/>
-    <hyperlink ref="D2" r:id="rId2" display="3yrmbr38@gmail.com" tooltip="mailto:3yrmbr38@gmail.com"/>
+    <hyperlink ref="F2" r:id="rId1" display="radhey"/>
+    <hyperlink ref="D3" r:id="rId2" display="testuser105@gmail.com" tooltip="mailto:testuser105@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="Radhey@13"/>
+    <hyperlink ref="F3" r:id="rId1" display="Radhey@13"/>
+    <hyperlink ref="D2" r:id="rId3" display="test1user1@gmail.com" tooltip="mailto:test1user1@gmail.com"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1322,53 +1358,441 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="12.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="11.4454545454545" customWidth="1"/>
+    <col min="4" max="4" width="22.8909090909091" customWidth="1"/>
+    <col min="5" max="5" width="11.6636363636364" customWidth="1"/>
+    <col min="6" max="6" width="17.1090909090909" customWidth="1"/>
+    <col min="7" max="7" width="15.6636363636364" customWidth="1"/>
+    <col min="8" max="8" width="11.1090909090909" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="3yrmbrind41.test@courses.jkyog.org" tooltip="mailto:3yrmbrind41.test@courses.jkyog.org"/>
+    <hyperlink ref="F2" r:id="rId2" display="radhey"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="9.89090909090909" customWidth="1"/>
+    <col min="3" max="3" width="11.4454545454545" customWidth="1"/>
+    <col min="4" max="4" width="22.8909090909091" customWidth="1"/>
+    <col min="5" max="5" width="11.6636363636364" customWidth="1"/>
+    <col min="6" max="6" width="17.1090909090909" customWidth="1"/>
+    <col min="7" max="7" width="15.6636363636364" customWidth="1"/>
+    <col min="8" max="8" width="11.1090909090909" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="radhey"/>
+    <hyperlink ref="D2" r:id="rId2" display="1yrmbrind5@gmail.com" tooltip="mailto:1yrmbrind5@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="9.89090909090909" customWidth="1"/>
+    <col min="3" max="3" width="11.4454545454545" customWidth="1"/>
+    <col min="4" max="4" width="22.8909090909091" customWidth="1"/>
+    <col min="5" max="5" width="11.6636363636364" customWidth="1"/>
+    <col min="6" max="6" width="17.1090909090909" customWidth="1"/>
+    <col min="7" max="7" width="15.6636363636364" customWidth="1"/>
+    <col min="8" max="8" width="11.1090909090909" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="radhey"/>
+    <hyperlink ref="D2" r:id="rId2" display="1yrmbrusd4@gmail.com" tooltip="mailto:1yrmbrusd4@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="9.89090909090909" customWidth="1"/>
+    <col min="3" max="3" width="11.4454545454545" customWidth="1"/>
+    <col min="4" max="4" width="22.8909090909091" customWidth="1"/>
+    <col min="5" max="5" width="11.6636363636364" customWidth="1"/>
+    <col min="6" max="6" width="17.1090909090909" customWidth="1"/>
+    <col min="7" max="7" width="15.6636363636364" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="radhey"/>
+    <hyperlink ref="D2" r:id="rId2" display="3yrmbrus41@gmail.com" tooltip="mailto:3yrmbrus41@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="9.88888888888889" customWidth="1"/>
-    <col min="3" max="3" width="11.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="22.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="18.6636363636364" customWidth="1"/>
+    <col min="2" max="2" width="9.89090909090909" customWidth="1"/>
+    <col min="3" max="3" width="11.4454545454545" customWidth="1"/>
+    <col min="4" max="4" width="22.8909090909091" customWidth="1"/>
+    <col min="5" max="5" width="11.6636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
+      <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="6">
+        <v>74562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="31.5454545454545" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="4">
-        <v>74562</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
